--- a/1-CONTROL/1-SISTEMA/CALCULADORA-PAGO.xlsx
+++ b/1-CONTROL/1-SISTEMA/CALCULADORA-PAGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\1-SISTEMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB5AFFA-5BF3-4343-83A3-E78BB1A02DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E2A08-B1A4-4BCF-8432-51000B7D259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5814D35E-81BE-4A92-86A7-385FBBC5FED7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$7:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,8 +562,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
         <v>806.52100000000019</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44682</v>
       </c>
@@ -1797,31 +1797,31 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="0"/>
-        <v>1024.8</v>
+        <v>853.99999999999989</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="1"/>
-        <v>232.18124999999998</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>115.28999999999999</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
@@ -1829,36 +1829,36 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" si="4"/>
-        <v>298.89999999999992</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="5"/>
-        <v>200.54054999999994</v>
+        <v>102.47999999999998</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="6"/>
-        <v>1671.1712499999996</v>
+        <v>853.99999999999989</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="9"/>
-        <v>1470.6306999999997</v>
+        <v>751.51999999999987</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="1">
         <v>300</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="7"/>
-        <v>1470.6306999999997</v>
+        <v>851.51999999999987</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" si="8"/>
-        <v>1170.6306999999997</v>
+        <v>551.51999999999987</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">

--- a/1-CONTROL/1-SISTEMA/CALCULADORA-PAGO.xlsx
+++ b/1-CONTROL/1-SISTEMA/CALCULADORA-PAGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\1-SISTEMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006E1D7-1F54-470F-BF7D-55AA0EFCF477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA13668-A273-491D-97C4-CF5D491F1E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5814D35E-81BE-4A92-86A7-385FBBC5FED7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>DIA</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>MIGUEL ALONSO</t>
+  </si>
+  <si>
+    <t>SANCHEZ CABRERA</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
   </si>
 </sst>
 </file>
@@ -603,11 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3166B-D153-48A1-A73F-1EFF2CF77D65}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32:X33"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44713</v>
       </c>
@@ -855,7 +860,7 @@
         <v>632.44843999999978</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44713</v>
       </c>
@@ -933,7 +938,7 @@
         <v>405.42245400000002</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44713</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>452.2715199999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44713</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>322.98</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44713</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>610.59680800000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44713</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>631.43269999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44713</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44713</v>
       </c>
@@ -1490,23 +1495,41 @@
         <v>942.33942000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41996696</v>
+      </c>
+      <c r="E17" s="18">
+        <v>24</v>
+      </c>
+      <c r="F17" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>819.83999999999992</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.031249999999993</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="2"/>
@@ -1521,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>102.5</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115.48454999999998</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>962.37124999999992</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>846.88669999999991</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1543,27 +1566,36 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>846.88669999999991</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="8"/>
-        <v>-300</v>
-      </c>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>546.88669999999991</v>
+      </c>
+      <c r="W17" s="13">
+        <f>6*B1</f>
+        <v>204.95999999999998</v>
+      </c>
+      <c r="X17" s="13">
+        <f>V17+W17</f>
+        <v>751.84669999999983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="18">
+        <v>30</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1024.8</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
@@ -1582,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>102.5</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135.27599999999998</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1127.3</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>992.024</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1604,14 +1636,14 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>992.024</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="8"/>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>692.024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1671,7 +1703,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1731,7 +1763,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1791,7 +1823,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="16"/>
@@ -1850,7 +1882,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1910,7 +1942,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1970,7 +2002,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2030,7 +2062,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2090,7 +2122,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2150,7 +2182,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2210,7 +2242,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2270,7 +2302,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2330,20 +2362,13 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="W32" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:W30" xr:uid="{F3A3166B-D153-48A1-A73F-1EFF2CF77D65}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CALVAY CASTRO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/1-CONTROL/1-SISTEMA/CALCULADORA-PAGO.xlsx
+++ b/1-CONTROL/1-SISTEMA/CALCULADORA-PAGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\1-SISTEMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA13668-A273-491D-97C4-CF5D491F1E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBD1244-420B-4A5C-AC73-78D74137AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5814D35E-81BE-4A92-86A7-385FBBC5FED7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$7:$W$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$7:$X$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hoja1 (2)'!$A$7:$V$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -609,10 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3166B-D153-48A1-A73F-1EFF2CF77D65}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44713</v>
       </c>
@@ -860,7 +861,7 @@
         <v>632.44843999999978</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44713</v>
       </c>
@@ -938,7 +939,7 @@
         <v>405.42245400000002</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44713</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>452.2715199999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44713</v>
       </c>
@@ -1161,21 +1162,21 @@
         <v>910.59680800000001</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="T12" s="1">
         <v>300</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="7"/>
-        <v>910.59680800000001</v>
+        <v>1149.596808</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="8"/>
-        <v>610.59680800000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>849.59680800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44713</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>631.43269999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44713</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44713</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>-33.727070000000026</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44713</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>942.33942000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44713</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>751.84669999999983</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1643,7 +1644,7 @@
         <v>692.024</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1703,7 +1704,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1763,7 +1764,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1823,7 +1824,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="16"/>
@@ -1882,7 +1883,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1942,7 +1943,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2002,7 +2003,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2062,7 +2063,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2122,7 +2123,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2182,7 +2183,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2242,7 +2243,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2302,7 +2303,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2369,6 +2370,13 @@
       <c r="W32" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:X30" xr:uid="{F3A3166B-D153-48A1-A73F-1EFF2CF77D65}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DIAZ SARMIENTO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
